--- a/biology/Microbiologie/Haemophilus_pittmaniae/Haemophilus_pittmaniae.xlsx
+++ b/biology/Microbiologie/Haemophilus_pittmaniae/Haemophilus_pittmaniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haemophilus pittmaniae est une espèce de bactéries à Gram négatif de la famille des Pasteurellaceae dans le phylum des Pseudomonadota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neuf isolats dont ceux classés dans un groupe 2C de l'étude d'Hedegaard en 2001[1],[2] sont classés dans une nouvelle espèce appelée Haemophilus pittmaniae grâce à des études phylogéniques supplémentaires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neuf isolats dont ceux classés dans un groupe 2C de l'étude d'Hedegaard en 2001, sont classés dans une nouvelle espèce appelée Haemophilus pittmaniae grâce à des études phylogéniques supplémentaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haemophilus pittmaniae sont des bactéries gram-négatives, non mobiles et anaérobies facultatives. Ce sont de petits bacilles pouvant devenir filamenteux sous certaines conditions[3]. Lorsqu'elles sont cultivées 24h à 37 +C sur milieu chocolat, elles forment des colonies blanc gris de 1 à 2 mm de diamètre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haemophilus pittmaniae sont des bactéries gram-négatives, non mobiles et anaérobies facultatives. Ce sont de petits bacilles pouvant devenir filamenteux sous certaines conditions. Lorsqu'elles sont cultivées 24h à 37 +C sur milieu chocolat, elles forment des colonies blanc gris de 1 à 2 mm de diamètre.
 </t>
         </is>
       </c>
@@ -573,14 +589,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Haemophilus pittmaniae Nørskov-Lauritsen et al. 2005[4].
-La souche type de cette espèce est la souche HK 85, isolée de la salive humaine, et déposée dans les banques de cultures bactériennes sous les numéros NCTC 13334 et CCUG 48703[3].
-Étymologie
-L'étymologie de cette espèce H. pittmaniae est la suivante : pitt.man’i.ae. N.L. gen. fem. n. pittmaniae, de Pittman, nommée en l'honneur de Margaret Pittman pour ses contributions importantes à la recherche sur Heamophilus[4].
-Phylogénie
-En 2001, Hedegaard et al. publie une étude phylogénique où il classe dans un sous-cluster numéroté 2C des bactéries du genre Haemophilus inclassables parmi les espèces existantes sur la base du séquençage du gène infB[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Haemophilus pittmaniae Nørskov-Lauritsen et al. 2005.
+La souche type de cette espèce est la souche HK 85, isolée de la salive humaine, et déposée dans les banques de cultures bactériennes sous les numéros NCTC 13334 et CCUG 48703.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haemophilus_pittmaniae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus_pittmaniae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce H. pittmaniae est la suivante : pitt.man’i.ae. N.L. gen. fem. n. pittmaniae, de Pittman, nommée en l'honneur de Margaret Pittman pour ses contributions importantes à la recherche sur Heamophilus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haemophilus_pittmaniae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus_pittmaniae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Hedegaard et al. publie une étude phylogénique où il classe dans un sous-cluster numéroté 2C des bactéries du genre Haemophilus inclassables parmi les espèces existantes sur la base du séquençage du gène infB.
 </t>
         </is>
       </c>
